--- a/骨干网问题1try/城市距离 删改.xlsx
+++ b/骨干网问题1try/城市距离 删改.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E97FADD-4188-4E93-87D7-A5B3CA0A0199}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="2295" windowWidth="17265" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8930" yWindow="2300" windowWidth="17270" windowHeight="11210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
   <si>
     <t>梅州</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,122 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>湛江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茂名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云浮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珠海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肇庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韶关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汕尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>揭阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湛江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云浮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肇庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汕尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>揭阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>湛江到揭阳/km</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,10 +71,6 @@
   </si>
   <si>
     <t>像素换算km</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市距离\km</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -230,12 +109,73 @@
     <t>阳江需要承接茂名与湛江，本身与外界连接全绿，茂名也不考虑连云浮绕路了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>广州 474 322</t>
+  </si>
+  <si>
+    <t>佛山 455 334</t>
+  </si>
+  <si>
+    <t>东莞 532 331</t>
+  </si>
+  <si>
+    <t>江门 450 391</t>
+  </si>
+  <si>
+    <t>清远 449 251</t>
+  </si>
+  <si>
+    <t>中山 486 408</t>
+  </si>
+  <si>
+    <t>肇庆 380 322</t>
+  </si>
+  <si>
+    <t>珠海 506 433</t>
+  </si>
+  <si>
+    <t>深圳 571 400</t>
+  </si>
+  <si>
+    <t>惠州 609 334</t>
+  </si>
+  <si>
+    <t>云浮 326 349</t>
+  </si>
+  <si>
+    <t>韶关 511 113</t>
+  </si>
+  <si>
+    <t>河源 646 240</t>
+  </si>
+  <si>
+    <t>阳江 314 488</t>
+  </si>
+  <si>
+    <t>湛江 119 566</t>
+  </si>
+  <si>
+    <t>茂名 181 501</t>
+  </si>
+  <si>
+    <t>汕尾 726 362</t>
+  </si>
+  <si>
+    <t>揭阳 844 264</t>
+  </si>
+  <si>
+    <t>梅州 809 176</t>
+  </si>
+  <si>
+    <t>城市距离/km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,22 +190,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -276,12 +200,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -346,21 +272,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -379,19 +297,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -441,6 +435,72 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -719,111 +779,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="16" width="5.125" style="1" customWidth="1"/>
-    <col min="17" max="19" width="6.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16" width="5.08203125" style="1" customWidth="1"/>
+    <col min="17" max="19" width="6.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="17.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.08203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
+      <c r="B3" s="11">
+        <v>-1</v>
       </c>
       <c r="C3" s="1">
         <v>19.119314756290599</v>
@@ -856,7 +919,7 @@
         <v>127.996382506472</v>
       </c>
       <c r="M3" s="1">
-        <v>-1</v>
+        <v>180.581822400183</v>
       </c>
       <c r="N3" s="1">
         <v>162.11671585499801</v>
@@ -876,16 +939,19 @@
       <c r="S3" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>19.119314756290599</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="1">
         <v>65.561175306190407</v>
@@ -915,7 +981,7 @@
         <v>110.49246994089</v>
       </c>
       <c r="M4" s="1">
-        <v>-1</v>
+        <v>193.968960579466</v>
       </c>
       <c r="N4" s="1">
         <v>181.116163326383</v>
@@ -935,13 +1001,16 @@
       <c r="S4" s="1">
         <v>-1</v>
       </c>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
       <c r="U4" s="1">
         <v>668.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>49.9368618744668</v>
@@ -950,7 +1019,7 @@
         <v>65.561175306190407</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="1">
         <v>86.447140413317896</v>
@@ -977,7 +1046,7 @@
         <v>175.93226021462701</v>
       </c>
       <c r="M5" s="1">
-        <v>-1</v>
+        <v>186.332606145857</v>
       </c>
       <c r="N5" s="1">
         <v>124.10287159100299</v>
@@ -997,13 +1066,16 @@
       <c r="S5" s="1">
         <v>-1</v>
       </c>
+      <c r="T5" s="1">
+        <v>-1</v>
+      </c>
       <c r="U5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>62.154880423870502</v>
@@ -1015,7 +1087,7 @@
         <v>86.447140413317896</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="1">
         <v>119.114806126744</v>
@@ -1059,13 +1131,16 @@
       <c r="S6" s="1">
         <v>-1</v>
       </c>
+      <c r="T6" s="1">
+        <v>-1</v>
+      </c>
       <c r="U6" s="1">
         <v>785.38</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>64.042004823043399</v>
@@ -1080,7 +1155,7 @@
         <v>119.114806126744</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="1">
         <v>137.234589807715</v>
@@ -1121,13 +1196,16 @@
       <c r="S7" s="1">
         <v>-1</v>
       </c>
+      <c r="T7" s="1">
+        <v>-1</v>
+      </c>
       <c r="U7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>73.877519772353907</v>
@@ -1145,7 +1223,7 @@
         <v>137.234589807715</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="1">
         <v>116.13319428802799</v>
@@ -1181,6 +1259,9 @@
         <v>-1</v>
       </c>
       <c r="S8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1">
         <v>-1</v>
       </c>
       <c r="U8" s="1">
@@ -1188,9 +1269,9 @@
         <v>0.85079833965723606</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>79.975043959999994</v>
@@ -1211,7 +1292,7 @@
         <v>116.13319428802799</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="1">
         <v>142.86573703772501</v>
@@ -1246,10 +1327,13 @@
       <c r="S9" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T9" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>98.284701484017603</v>
@@ -1273,7 +1357,7 @@
         <v>142.86573703772501</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J10" s="1">
         <v>62.020806434233499</v>
@@ -1305,10 +1389,13 @@
       <c r="S10" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
+      <c r="T10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="1">
         <v>105.899618191792</v>
@@ -1335,7 +1422,7 @@
         <v>62.020806434233499</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="1">
         <v>64.794871162856595</v>
@@ -1364,10 +1451,13 @@
       <c r="S11" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1">
         <v>115.310642223971</v>
@@ -1397,7 +1487,7 @@
         <v>64.794871162856595</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L12" s="1">
         <v>-1</v>
@@ -1423,10 +1513,13 @@
       <c r="S12" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1">
         <v>127.996382506472</v>
@@ -1459,7 +1552,7 @@
         <v>-1</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M13" s="1">
         <v>-1</v>
@@ -1473,31 +1566,37 @@
       <c r="P13" s="1">
         <v>-1</v>
       </c>
+      <c r="Q13" s="1">
+        <v>178.72638734511801</v>
+      </c>
       <c r="R13" s="1">
         <v>-1</v>
       </c>
       <c r="S13" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1">
-        <v>-1</v>
+        <v>180.581822400183</v>
       </c>
       <c r="C14" s="1">
-        <v>-1</v>
+        <v>193.968960579466</v>
       </c>
       <c r="D14" s="1">
-        <v>-1</v>
+        <v>186.332606145857</v>
       </c>
       <c r="E14" s="1">
         <v>-1</v>
       </c>
       <c r="F14" s="1">
-        <v>129</v>
+        <v>128.715413520124</v>
       </c>
       <c r="G14" s="1">
         <v>-1</v>
@@ -1518,10 +1617,10 @@
         <v>-1</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="1">
-        <v>-1</v>
+        <v>157.69404360476801</v>
       </c>
       <c r="O14" s="1">
         <v>-1</v>
@@ -1538,8 +1637,11 @@
       <c r="S14" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T14" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1577,10 +1679,10 @@
         <v>-1</v>
       </c>
       <c r="M15" s="1">
-        <v>-1</v>
+        <v>157.69404360476801</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="1">
         <v>-1</v>
@@ -1595,12 +1697,15 @@
         <v>124.123284446716</v>
       </c>
       <c r="S15" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>169.69108372125501</v>
+      </c>
+      <c r="T15" s="1">
+        <v>148.98691186680901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>196.15653451407701</v>
@@ -1642,13 +1747,13 @@
         <v>-1</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="1">
-        <v>-1</v>
+        <v>178.685881862922</v>
       </c>
       <c r="Q16" s="1">
-        <v>114</v>
+        <v>113.695439075023</v>
       </c>
       <c r="R16" s="1">
         <v>-1</v>
@@ -1656,10 +1761,13 @@
       <c r="S16" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
+      <c r="T16" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>-1</v>
@@ -1701,13 +1809,13 @@
         <v>-1</v>
       </c>
       <c r="O17" s="1">
-        <v>-1</v>
+        <v>178.685881862922</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="1">
-        <v>76.400000000000006</v>
+        <v>76.425183755310499</v>
       </c>
       <c r="R17" s="1">
         <v>-1</v>
@@ -1715,10 +1823,13 @@
       <c r="S17" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
+      <c r="T17" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B18" s="1">
         <v>-1</v>
@@ -1749,6 +1860,9 @@
       </c>
       <c r="K18" s="1">
         <v>-1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>178.72638734511801</v>
       </c>
       <c r="M18" s="1">
         <v>-1</v>
@@ -1763,7 +1877,7 @@
         <v>76.425183755310499</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R18" s="1">
         <v>-1</v>
@@ -1771,10 +1885,13 @@
       <c r="S18" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T18" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
         <v>-1</v>
@@ -1782,6 +1899,9 @@
       <c r="C19" s="1">
         <v>-1</v>
       </c>
+      <c r="D19" s="1">
+        <v>167.14885611017101</v>
+      </c>
       <c r="E19" s="1">
         <v>-1</v>
       </c>
@@ -1793,6 +1913,12 @@
       </c>
       <c r="H19" s="1">
         <v>-1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>196.68168575123099</v>
+      </c>
+      <c r="J19" s="1">
+        <v>135.77899211242701</v>
       </c>
       <c r="K19" s="1">
         <v>102.354258150375</v>
@@ -1803,6 +1929,9 @@
       <c r="M19" s="1">
         <v>-1</v>
       </c>
+      <c r="N19" s="1">
+        <v>124.123284446716</v>
+      </c>
       <c r="O19" s="1">
         <v>-1</v>
       </c>
@@ -1813,15 +1942,18 @@
         <v>-1</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S19" s="1">
         <v>130.50259261592601</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
+      <c r="T19" s="1">
+        <v>173.28947304917301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="1">
         <v>-1</v>
@@ -1860,7 +1992,7 @@
         <v>-1</v>
       </c>
       <c r="N20" s="1">
-        <v>-1</v>
+        <v>169.69108372125501</v>
       </c>
       <c r="O20" s="1">
         <v>-1</v>
@@ -1875,118 +2007,127 @@
         <v>130.50259261592601</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12">
-        <v>2</v>
-      </c>
-      <c r="E21" s="12">
-        <v>3</v>
-      </c>
-      <c r="F21" s="12">
-        <v>4</v>
-      </c>
-      <c r="G21" s="12">
-        <v>5</v>
-      </c>
-      <c r="H21" s="12">
-        <v>6</v>
-      </c>
-      <c r="I21" s="12">
-        <v>7</v>
-      </c>
-      <c r="J21" s="12">
-        <v>8</v>
-      </c>
-      <c r="K21" s="12">
-        <v>9</v>
-      </c>
-      <c r="L21" s="12">
-        <v>10</v>
-      </c>
-      <c r="M21" s="12">
-        <v>11</v>
-      </c>
-      <c r="N21" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>80.574690479362403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>148.98691186680901</v>
+      </c>
+      <c r="O21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>173.28947304917301</v>
+      </c>
+      <c r="S21" s="1">
+        <v>80.574690479362403</v>
+      </c>
+      <c r="T21" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="12">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="12">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>15</v>
-      </c>
-      <c r="R21" s="12">
-        <v>16</v>
-      </c>
-      <c r="S21" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="7"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="7"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="7"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="7"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2002,19 +2143,19 @@
       <c r="E30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="7"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2027,19 +2168,19 @@
       <c r="E31" s="1">
         <v>85.9</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="7"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2049,19 +2190,19 @@
       <c r="D32" s="1">
         <v>34.4</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="7"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2071,38 +2212,38 @@
       <c r="C33" s="1">
         <v>34.4</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="7"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1">
         <v>85.9</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="7"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -2110,62 +2251,2430 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="M35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="7"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="M35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-      <c r="M36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="7"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="M36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="11">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>19.119314756290599</v>
+      </c>
+      <c r="D45" s="1">
+        <v>49.9368618744668</v>
+      </c>
+      <c r="E45" s="1">
+        <v>62.154880423870502</v>
+      </c>
+      <c r="F45" s="1">
+        <v>64.042004823043399</v>
+      </c>
+      <c r="G45" s="1">
+        <v>73.877519772353907</v>
+      </c>
+      <c r="H45" s="1">
+        <v>79.975043959999994</v>
+      </c>
+      <c r="I45" s="1">
+        <v>98.284701484017603</v>
+      </c>
+      <c r="J45" s="1">
+        <v>105.899618191792</v>
+      </c>
+      <c r="K45" s="1">
+        <v>115.310642223971</v>
+      </c>
+      <c r="L45" s="1">
+        <v>127.996382506472</v>
+      </c>
+      <c r="M45" s="1">
+        <v>180.581822400183</v>
+      </c>
+      <c r="N45" s="1">
+        <v>162.11671585499801</v>
+      </c>
+      <c r="O45" s="1">
+        <v>196.15653451407701</v>
+      </c>
+      <c r="P45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T45" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1">
+        <v>19.119314756290599</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>65.561175306190407</v>
+      </c>
+      <c r="E46" s="1">
+        <v>48.6817264221933</v>
+      </c>
+      <c r="F46" s="1">
+        <v>70.800532281023706</v>
+      </c>
+      <c r="G46" s="1">
+        <v>68.260330774081893</v>
+      </c>
+      <c r="H46" s="1">
+        <v>64.621480459174194</v>
+      </c>
+      <c r="I46" s="1">
+        <v>94.748533634724197</v>
+      </c>
+      <c r="J46" s="1">
+        <v>113.54891195848801</v>
+      </c>
+      <c r="K46" s="1">
+        <v>131.02294436</v>
+      </c>
+      <c r="L46" s="1">
+        <v>110.49246994089</v>
+      </c>
+      <c r="M46" s="1">
+        <v>193.968960579466</v>
+      </c>
+      <c r="N46" s="1">
+        <v>181.116163326383</v>
+      </c>
+      <c r="O46" s="1">
+        <v>177.64579695470599</v>
+      </c>
+      <c r="P46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T46" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1">
+        <v>49.9368618744668</v>
+      </c>
+      <c r="C47" s="1">
+        <v>65.561175306190407</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>86.447140413317896</v>
+      </c>
+      <c r="F47" s="1">
+        <v>98.078267257038306</v>
+      </c>
+      <c r="G47" s="1">
+        <v>76.311441635344906</v>
+      </c>
+      <c r="H47" s="1">
+        <v>129.547842316322</v>
+      </c>
+      <c r="I47" s="1">
+        <v>89.556376624124596</v>
+      </c>
+      <c r="J47" s="1">
+        <v>67.433484234527896</v>
+      </c>
+      <c r="K47" s="1">
+        <v>65.561175306190407</v>
+      </c>
+      <c r="L47" s="1">
+        <v>175.93226021462701</v>
+      </c>
+      <c r="M47" s="1">
+        <v>186.332606145857</v>
+      </c>
+      <c r="N47" s="1">
+        <v>124.10287159100299</v>
+      </c>
+      <c r="O47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R47" s="1">
+        <v>167.14885611017101</v>
+      </c>
+      <c r="S47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1">
+        <v>62.154880423870502</v>
+      </c>
+      <c r="C48" s="1">
+        <v>48.6817264221933</v>
+      </c>
+      <c r="D48" s="1">
+        <v>86.447140413317896</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>119.114806126744</v>
+      </c>
+      <c r="G48" s="1">
+        <v>33.872033262333197</v>
+      </c>
+      <c r="H48" s="1">
+        <v>83.625297333193402</v>
+      </c>
+      <c r="I48" s="1">
+        <v>59.555883799999997</v>
+      </c>
+      <c r="J48" s="1">
+        <v>103.230977703086</v>
+      </c>
+      <c r="K48" s="1">
+        <v>143.70686647423301</v>
+      </c>
+      <c r="L48" s="1">
+        <v>111.386367904889</v>
+      </c>
+      <c r="M48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>142.12407374280801</v>
+      </c>
+      <c r="P48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T48" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1">
+        <v>64.042004823043399</v>
+      </c>
+      <c r="C49" s="1">
+        <v>70.800532281023706</v>
+      </c>
+      <c r="D49" s="1">
+        <v>98.078267257038306</v>
+      </c>
+      <c r="E49" s="1">
+        <v>119.114806126744</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>137.234589807715</v>
+      </c>
+      <c r="H49" s="1">
+        <v>84.233332511713598</v>
+      </c>
+      <c r="I49" s="1">
+        <v>162.261764804921</v>
+      </c>
+      <c r="J49" s="1">
+        <v>163.84220177394599</v>
+      </c>
+      <c r="K49" s="1">
+        <v>153.35389321044599</v>
+      </c>
+      <c r="L49" s="1">
+        <v>133.80274790515799</v>
+      </c>
+      <c r="M49" s="1">
+        <v>128.715413520124</v>
+      </c>
+      <c r="N49" s="1">
+        <v>167.86835542010101</v>
+      </c>
+      <c r="O49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T49" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1">
+        <v>73.877519772353907</v>
+      </c>
+      <c r="C50" s="1">
+        <v>68.260330774081893</v>
+      </c>
+      <c r="D50" s="1">
+        <v>76.311441635344906</v>
+      </c>
+      <c r="E50" s="1">
+        <v>33.872033262333197</v>
+      </c>
+      <c r="F50" s="1">
+        <v>137.234589807715</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>116.13319428802799</v>
+      </c>
+      <c r="I50" s="1">
+        <v>27.238837360108199</v>
+      </c>
+      <c r="J50" s="1">
+        <v>72.637453259750899</v>
+      </c>
+      <c r="K50" s="1">
+        <v>122.127352731564</v>
+      </c>
+      <c r="L50" s="1">
+        <v>145.08793584615799</v>
+      </c>
+      <c r="M50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>197.38521488000001</v>
+      </c>
+      <c r="O50" s="1">
+        <v>161.39175823888201</v>
+      </c>
+      <c r="P50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T50" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1">
+        <v>79.975043959999994</v>
+      </c>
+      <c r="C51" s="1">
+        <v>64.621480459174194</v>
+      </c>
+      <c r="D51" s="1">
+        <v>129.547842316322</v>
+      </c>
+      <c r="E51" s="1">
+        <v>83.625297333193402</v>
+      </c>
+      <c r="F51" s="1">
+        <v>84.233332511713598</v>
+      </c>
+      <c r="G51" s="1">
+        <v>116.13319428802799</v>
+      </c>
+      <c r="H51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>142.86573703772501</v>
+      </c>
+      <c r="J51" s="1">
+        <v>175.530646641077</v>
+      </c>
+      <c r="K51" s="1">
+        <v>195.10013639157</v>
+      </c>
+      <c r="L51" s="1">
+        <v>51.365958931367402</v>
+      </c>
+      <c r="M51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>151.98602107873501</v>
+      </c>
+      <c r="P51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T51" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="1">
+        <v>98.284701484017603</v>
+      </c>
+      <c r="C52" s="1">
+        <v>94.748533634724197</v>
+      </c>
+      <c r="D52" s="1">
+        <v>89.556376624124596</v>
+      </c>
+      <c r="E52" s="1">
+        <v>59.555883799999997</v>
+      </c>
+      <c r="F52" s="1">
+        <v>162.261764804921</v>
+      </c>
+      <c r="G52" s="1">
+        <v>27.238837360108199</v>
+      </c>
+      <c r="H52" s="1">
+        <v>142.86573703772501</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>62.020806434233499</v>
+      </c>
+      <c r="K52" s="1">
+        <v>121.548089294844</v>
+      </c>
+      <c r="L52" s="1">
+        <v>168.99862118467601</v>
+      </c>
+      <c r="M52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O52" s="1">
+        <v>169.92340744102</v>
+      </c>
+      <c r="P52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R52" s="1">
+        <v>196.68168575123099</v>
+      </c>
+      <c r="S52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T52" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="1">
+        <v>105.899618191792</v>
+      </c>
+      <c r="C53" s="1">
+        <v>113.54891195848801</v>
+      </c>
+      <c r="D53" s="1">
+        <v>67.433484234527896</v>
+      </c>
+      <c r="E53" s="1">
+        <v>103.230977703086</v>
+      </c>
+      <c r="F53" s="1">
+        <v>163.84220177394599</v>
+      </c>
+      <c r="G53" s="1">
+        <v>72.637453259750899</v>
+      </c>
+      <c r="H53" s="1">
+        <v>175.530646641077</v>
+      </c>
+      <c r="I53" s="1">
+        <v>62.020806434233499</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>64.794871162856595</v>
+      </c>
+      <c r="L53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N53" s="1">
+        <v>150.34114634458001</v>
+      </c>
+      <c r="O53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R53" s="1">
+        <v>135.77899211242701</v>
+      </c>
+      <c r="S53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T53" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="1">
+        <v>115.310642223971</v>
+      </c>
+      <c r="C54" s="1">
+        <v>131.02294436</v>
+      </c>
+      <c r="D54" s="1">
+        <v>65.561175306190407</v>
+      </c>
+      <c r="E54" s="1">
+        <v>143.70686647423301</v>
+      </c>
+      <c r="F54" s="1">
+        <v>153.35389321044599</v>
+      </c>
+      <c r="G54" s="1">
+        <v>122.127352731564</v>
+      </c>
+      <c r="H54" s="1">
+        <v>195.10013639157</v>
+      </c>
+      <c r="I54" s="1">
+        <v>121.548089294844</v>
+      </c>
+      <c r="J54" s="1">
+        <v>64.794871162856595</v>
+      </c>
+      <c r="K54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>85.947478180651899</v>
+      </c>
+      <c r="O54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R54" s="1">
+        <v>102.354258150375</v>
+      </c>
+      <c r="S54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T54" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="1">
+        <v>127.996382506472</v>
+      </c>
+      <c r="C55" s="1">
+        <v>110.49246994089</v>
+      </c>
+      <c r="D55" s="1">
+        <v>175.93226021462701</v>
+      </c>
+      <c r="E55" s="1">
+        <v>111.386367904889</v>
+      </c>
+      <c r="F55" s="1">
+        <v>133.80274790515799</v>
+      </c>
+      <c r="G55" s="1">
+        <v>145.08793584615799</v>
+      </c>
+      <c r="H55" s="1">
+        <v>51.365958931367402</v>
+      </c>
+      <c r="I55" s="1">
+        <v>168.99862118467601</v>
+      </c>
+      <c r="J55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O55" s="1">
+        <v>118.70085246418699</v>
+      </c>
+      <c r="P55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>178.72638734511801</v>
+      </c>
+      <c r="R55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T55" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="1">
+        <v>180.581822400183</v>
+      </c>
+      <c r="C56" s="1">
+        <v>193.968960579466</v>
+      </c>
+      <c r="D56" s="1">
+        <v>186.332606145857</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>128.715413520124</v>
+      </c>
+      <c r="G56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>157.69404360476801</v>
+      </c>
+      <c r="O56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T56" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="1">
+        <v>162.11671585499801</v>
+      </c>
+      <c r="C57" s="1">
+        <v>181.116163326383</v>
+      </c>
+      <c r="D57" s="1">
+        <v>124.10287159100299</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>167.86835542010101</v>
+      </c>
+      <c r="G57" s="1">
+        <v>197.38521488000001</v>
+      </c>
+      <c r="H57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>150.34114634458001</v>
+      </c>
+      <c r="K57" s="1">
+        <v>85.947478180651899</v>
+      </c>
+      <c r="L57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>157.69404360476801</v>
+      </c>
+      <c r="N57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R57" s="1">
+        <v>124.123284446716</v>
+      </c>
+      <c r="S57" s="1">
+        <v>169.69108372125501</v>
+      </c>
+      <c r="T57" s="1">
+        <v>148.98691186680901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="1">
+        <v>196.15653451407701</v>
+      </c>
+      <c r="C58" s="1">
+        <v>177.64579695470599</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>142.12407374280801</v>
+      </c>
+      <c r="F58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>161.39175823888201</v>
+      </c>
+      <c r="H58" s="1">
+        <v>151.98602107873501</v>
+      </c>
+      <c r="I58" s="1">
+        <v>169.92340744102</v>
+      </c>
+      <c r="J58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>118.70085246418699</v>
+      </c>
+      <c r="M58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P58" s="1">
+        <v>178.685881862922</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>113.695439075023</v>
+      </c>
+      <c r="R58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T58" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>178.685881862922</v>
+      </c>
+      <c r="P59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>76.425183755310499</v>
+      </c>
+      <c r="R59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T59" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>178.72638734511801</v>
+      </c>
+      <c r="M60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>113.695439075023</v>
+      </c>
+      <c r="P60" s="1">
+        <v>76.425183755310499</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T60" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>167.14885611017101</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>196.68168575123099</v>
+      </c>
+      <c r="J61" s="1">
+        <v>135.77899211242701</v>
+      </c>
+      <c r="K61" s="1">
+        <v>102.354258150375</v>
+      </c>
+      <c r="L61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>124.123284446716</v>
+      </c>
+      <c r="O61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S61" s="1">
+        <v>130.50259261592601</v>
+      </c>
+      <c r="T61" s="1">
+        <v>173.28947304917301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>169.69108372125501</v>
+      </c>
+      <c r="O62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R62" s="1">
+        <v>130.50259261592601</v>
+      </c>
+      <c r="S62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T62" s="1">
+        <v>80.574690479362403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N63" s="1">
+        <v>148.98691186680901</v>
+      </c>
+      <c r="O63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R63" s="1">
+        <v>173.28947304917301</v>
+      </c>
+      <c r="S63" s="1">
+        <v>80.574690479362403</v>
+      </c>
+      <c r="T63" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>19.119314756290599</v>
+      </c>
+      <c r="D65" s="1">
+        <v>49.9368618744668</v>
+      </c>
+      <c r="E65" s="1">
+        <v>62.154880423870502</v>
+      </c>
+      <c r="F65" s="1">
+        <v>64.042004823043399</v>
+      </c>
+      <c r="G65" s="1">
+        <v>73.877519772353907</v>
+      </c>
+      <c r="H65" s="1">
+        <v>79.975043959999994</v>
+      </c>
+      <c r="I65" s="1">
+        <v>98.284701484017603</v>
+      </c>
+      <c r="J65" s="1">
+        <v>105.899618191792</v>
+      </c>
+      <c r="K65" s="1">
+        <v>115.310642223971</v>
+      </c>
+      <c r="L65" s="1">
+        <v>127.996382506472</v>
+      </c>
+      <c r="M65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N65" s="1">
+        <v>162.11671585499801</v>
+      </c>
+      <c r="O65" s="1">
+        <v>196.15653451407701</v>
+      </c>
+      <c r="P65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S65" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="1">
+        <v>19.119314756290599</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>65.561175306190407</v>
+      </c>
+      <c r="E66" s="1">
+        <v>48.6817264221933</v>
+      </c>
+      <c r="F66" s="1">
+        <v>70.800532281023706</v>
+      </c>
+      <c r="G66" s="1">
+        <v>68.260330774081893</v>
+      </c>
+      <c r="H66" s="1">
+        <v>64.621480459174194</v>
+      </c>
+      <c r="I66" s="1">
+        <v>94.748533634724197</v>
+      </c>
+      <c r="J66" s="1">
+        <v>113.54891195848801</v>
+      </c>
+      <c r="K66" s="1">
+        <v>131.02294436</v>
+      </c>
+      <c r="L66" s="1">
+        <v>110.49246994089</v>
+      </c>
+      <c r="M66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>181.116163326383</v>
+      </c>
+      <c r="O66" s="1">
+        <v>177.64579695470599</v>
+      </c>
+      <c r="P66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S66" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="1">
+        <v>49.9368618744668</v>
+      </c>
+      <c r="C67" s="1">
+        <v>65.561175306190407</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>86.447140413317896</v>
+      </c>
+      <c r="F67" s="1">
+        <v>98.078267257038306</v>
+      </c>
+      <c r="G67" s="1">
+        <v>76.311441635344906</v>
+      </c>
+      <c r="H67" s="1">
+        <v>129.547842316322</v>
+      </c>
+      <c r="I67" s="1">
+        <v>89.556376624124596</v>
+      </c>
+      <c r="J67" s="1">
+        <v>67.433484234527896</v>
+      </c>
+      <c r="K67" s="1">
+        <v>65.561175306190407</v>
+      </c>
+      <c r="L67" s="1">
+        <v>175.93226021462701</v>
+      </c>
+      <c r="M67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>124.10287159100299</v>
+      </c>
+      <c r="O67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R67" s="1">
+        <v>167.14885611017101</v>
+      </c>
+      <c r="S67" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="1">
+        <v>62.154880423870502</v>
+      </c>
+      <c r="C68" s="1">
+        <v>48.6817264221933</v>
+      </c>
+      <c r="D68" s="1">
+        <v>86.447140413317896</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>119.114806126744</v>
+      </c>
+      <c r="G68" s="1">
+        <v>33.872033262333197</v>
+      </c>
+      <c r="H68" s="1">
+        <v>83.625297333193402</v>
+      </c>
+      <c r="I68" s="1">
+        <v>59.555883799999997</v>
+      </c>
+      <c r="J68" s="1">
+        <v>103.230977703086</v>
+      </c>
+      <c r="K68" s="1">
+        <v>143.70686647423301</v>
+      </c>
+      <c r="L68" s="1">
+        <v>111.386367904889</v>
+      </c>
+      <c r="M68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O68" s="1">
+        <v>142.12407374280801</v>
+      </c>
+      <c r="P68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S68" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="1">
+        <v>64.042004823043399</v>
+      </c>
+      <c r="C69" s="1">
+        <v>70.800532281023706</v>
+      </c>
+      <c r="D69" s="1">
+        <v>98.078267257038306</v>
+      </c>
+      <c r="E69" s="1">
+        <v>119.114806126744</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>137.234589807715</v>
+      </c>
+      <c r="H69" s="1">
+        <v>84.233332511713598</v>
+      </c>
+      <c r="I69" s="1">
+        <v>162.261764804921</v>
+      </c>
+      <c r="J69" s="1">
+        <v>163.84220177394599</v>
+      </c>
+      <c r="K69" s="1">
+        <v>153.35389321044599</v>
+      </c>
+      <c r="L69" s="1">
+        <v>133.80274790515799</v>
+      </c>
+      <c r="M69" s="1">
+        <v>128.715413520124</v>
+      </c>
+      <c r="N69" s="1">
+        <v>167.86835542010101</v>
+      </c>
+      <c r="O69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S69" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="1">
+        <v>73.877519772353907</v>
+      </c>
+      <c r="C70" s="1">
+        <v>68.260330774081893</v>
+      </c>
+      <c r="D70" s="1">
+        <v>76.311441635344906</v>
+      </c>
+      <c r="E70" s="1">
+        <v>33.872033262333197</v>
+      </c>
+      <c r="F70" s="1">
+        <v>137.234589807715</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>116.13319428802799</v>
+      </c>
+      <c r="I70" s="1">
+        <v>27.238837360108199</v>
+      </c>
+      <c r="J70" s="1">
+        <v>72.637453259750899</v>
+      </c>
+      <c r="K70" s="1">
+        <v>122.127352731564</v>
+      </c>
+      <c r="L70" s="1">
+        <v>145.08793584615799</v>
+      </c>
+      <c r="M70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>197.38521488000001</v>
+      </c>
+      <c r="O70" s="1">
+        <v>161.39175823888201</v>
+      </c>
+      <c r="P70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S70" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="1">
+        <v>79.975043959999994</v>
+      </c>
+      <c r="C71" s="1">
+        <v>64.621480459174194</v>
+      </c>
+      <c r="D71" s="1">
+        <v>129.547842316322</v>
+      </c>
+      <c r="E71" s="1">
+        <v>83.625297333193402</v>
+      </c>
+      <c r="F71" s="1">
+        <v>84.233332511713598</v>
+      </c>
+      <c r="G71" s="1">
+        <v>116.13319428802799</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>142.86573703772501</v>
+      </c>
+      <c r="J71" s="1">
+        <v>175.530646641077</v>
+      </c>
+      <c r="K71" s="1">
+        <v>195.10013639157</v>
+      </c>
+      <c r="L71" s="1">
+        <v>51.365958931367402</v>
+      </c>
+      <c r="M71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O71" s="1">
+        <v>151.98602107873501</v>
+      </c>
+      <c r="P71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S71" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="1">
+        <v>98.284701484017603</v>
+      </c>
+      <c r="C72" s="1">
+        <v>94.748533634724197</v>
+      </c>
+      <c r="D72" s="1">
+        <v>89.556376624124596</v>
+      </c>
+      <c r="E72" s="1">
+        <v>59.555883799999997</v>
+      </c>
+      <c r="F72" s="1">
+        <v>162.261764804921</v>
+      </c>
+      <c r="G72" s="1">
+        <v>27.238837360108199</v>
+      </c>
+      <c r="H72" s="1">
+        <v>142.86573703772501</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>62.020806434233499</v>
+      </c>
+      <c r="K72" s="1">
+        <v>121.548089294844</v>
+      </c>
+      <c r="L72" s="1">
+        <v>168.99862118467601</v>
+      </c>
+      <c r="M72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>169.92340744102</v>
+      </c>
+      <c r="P72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R72" s="1">
+        <v>196.68168575123099</v>
+      </c>
+      <c r="S72" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="1">
+        <v>105.899618191792</v>
+      </c>
+      <c r="C73" s="1">
+        <v>113.54891195848801</v>
+      </c>
+      <c r="D73" s="1">
+        <v>67.433484234527896</v>
+      </c>
+      <c r="E73" s="1">
+        <v>103.230977703086</v>
+      </c>
+      <c r="F73" s="1">
+        <v>163.84220177394599</v>
+      </c>
+      <c r="G73" s="1">
+        <v>72.637453259750899</v>
+      </c>
+      <c r="H73" s="1">
+        <v>175.530646641077</v>
+      </c>
+      <c r="I73" s="1">
+        <v>62.020806434233499</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>64.794871162856595</v>
+      </c>
+      <c r="L73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N73" s="1">
+        <v>150.34114634458001</v>
+      </c>
+      <c r="O73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R73" s="1">
+        <v>135.77899211242701</v>
+      </c>
+      <c r="S73" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="1">
+        <v>115.310642223971</v>
+      </c>
+      <c r="C74" s="1">
+        <v>131.02294436</v>
+      </c>
+      <c r="D74" s="1">
+        <v>65.561175306190407</v>
+      </c>
+      <c r="E74" s="1">
+        <v>143.70686647423301</v>
+      </c>
+      <c r="F74" s="1">
+        <v>153.35389321044599</v>
+      </c>
+      <c r="G74" s="1">
+        <v>122.127352731564</v>
+      </c>
+      <c r="H74" s="1">
+        <v>195.10013639157</v>
+      </c>
+      <c r="I74" s="1">
+        <v>121.548089294844</v>
+      </c>
+      <c r="J74" s="1">
+        <v>64.794871162856595</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>85.947478180651899</v>
+      </c>
+      <c r="O74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R74" s="1">
+        <v>102.354258150375</v>
+      </c>
+      <c r="S74" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="1">
+        <v>127.996382506472</v>
+      </c>
+      <c r="C75" s="1">
+        <v>110.49246994089</v>
+      </c>
+      <c r="D75" s="1">
+        <v>175.93226021462701</v>
+      </c>
+      <c r="E75" s="1">
+        <v>111.386367904889</v>
+      </c>
+      <c r="F75" s="1">
+        <v>133.80274790515799</v>
+      </c>
+      <c r="G75" s="1">
+        <v>145.08793584615799</v>
+      </c>
+      <c r="H75" s="1">
+        <v>51.365958931367402</v>
+      </c>
+      <c r="I75" s="1">
+        <v>168.99862118467601</v>
+      </c>
+      <c r="J75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O75" s="1">
+        <v>118.70085246418699</v>
+      </c>
+      <c r="P75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S75" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>129</v>
+      </c>
+      <c r="G76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S76" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="1">
+        <v>162.11671585499801</v>
+      </c>
+      <c r="C77" s="1">
+        <v>181.116163326383</v>
+      </c>
+      <c r="D77" s="1">
+        <v>124.10287159100299</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>167.86835542010101</v>
+      </c>
+      <c r="G77" s="1">
+        <v>197.38521488000001</v>
+      </c>
+      <c r="H77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>150.34114634458001</v>
+      </c>
+      <c r="K77" s="1">
+        <v>85.947478180651899</v>
+      </c>
+      <c r="L77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R77" s="1">
+        <v>124.123284446716</v>
+      </c>
+      <c r="S77" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="1">
+        <v>196.15653451407701</v>
+      </c>
+      <c r="C78" s="1">
+        <v>177.64579695470599</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>142.12407374280801</v>
+      </c>
+      <c r="F78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>161.39175823888201</v>
+      </c>
+      <c r="H78" s="1">
+        <v>151.98602107873501</v>
+      </c>
+      <c r="I78" s="1">
+        <v>169.92340744102</v>
+      </c>
+      <c r="J78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L78" s="1">
+        <v>118.70085246418699</v>
+      </c>
+      <c r="M78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>114</v>
+      </c>
+      <c r="R78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S78" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="R79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S79" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O80" s="1">
+        <v>113.695439075023</v>
+      </c>
+      <c r="P80" s="1">
+        <v>76.425183755310499</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S80" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K81" s="1">
+        <v>102.354258150375</v>
+      </c>
+      <c r="L81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>130.50259261592601</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R82" s="1">
+        <v>130.50259261592601</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B83" s="9">
+        <v>0</v>
+      </c>
+      <c r="C83" s="9">
+        <v>1</v>
+      </c>
+      <c r="D83" s="9">
+        <v>2</v>
+      </c>
+      <c r="E83" s="9">
+        <v>3</v>
+      </c>
+      <c r="F83" s="9">
+        <v>4</v>
+      </c>
+      <c r="G83" s="9">
+        <v>5</v>
+      </c>
+      <c r="H83" s="9">
+        <v>6</v>
+      </c>
+      <c r="I83" s="9">
+        <v>7</v>
+      </c>
+      <c r="J83" s="9">
+        <v>8</v>
+      </c>
+      <c r="K83" s="9">
+        <v>9</v>
+      </c>
+      <c r="L83" s="9">
+        <v>10</v>
+      </c>
+      <c r="M83" s="9">
+        <v>11</v>
+      </c>
+      <c r="N83" s="9">
+        <v>12</v>
+      </c>
+      <c r="O83" s="9">
+        <v>13</v>
+      </c>
+      <c r="P83" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q83" s="9">
+        <v>15</v>
+      </c>
+      <c r="R83" s="9">
+        <v>16</v>
+      </c>
+      <c r="S83" s="9">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="V26:XFD36 B26:M36 A1:XFD1 B22:XFD25 B84:XFD1048576 T65:XFD83 B37:XFD64 U2:XFD21 A22:A1048576">
+    <cfRule type="cellIs" dxfId="9" priority="25" operator="between">
+      <formula>100</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="26" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="27" operator="between">
+      <formula>80.01</formula>
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="29" operator="between">
+      <formula>0.1</formula>
+      <formula>80</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="80"/>
+        <color rgb="FFFF7128"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R72">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="80"/>
@@ -2174,26 +4683,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V26:XFD36 B26:M36 B37:XFD1048576 A11:A1048576 B11:XFD20 A1:XFD10 B22:XFD25 T21:XFD21">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
+  <conditionalFormatting sqref="B65:S82">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="between">
       <formula>100</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="between">
       <formula>80.01</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="between">
       <formula>0.1</formula>
       <formula>80</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="80"/>
@@ -2202,14 +4711,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
+  <conditionalFormatting sqref="N78">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="between">
       <formula>0.1</formula>
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:T21">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+      <formula>100</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>80.01</formula>
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
+      <formula>0.1</formula>
+      <formula>80</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="80"/>
+        <color rgb="FFFF7128"/>
+        <color theme="5"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
